--- a/src/게시판테이블명세서.xlsx
+++ b/src/게시판테이블명세서.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="10275" tabRatio="829" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="10275" tabRatio="829" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스 명세서" sheetId="1" r:id="rId1"/>
     <sheet name="Entity 정의서" sheetId="2" r:id="rId2"/>
     <sheet name="회원 테이블  명세서" sheetId="7" r:id="rId3"/>
     <sheet name="게시판 테이블  명세서" sheetId="5" r:id="rId4"/>
+    <sheet name="아바타 테이블  명세서" sheetId="8" r:id="rId5"/>
+    <sheet name="방명록 테이블  명세서" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="169">
   <si>
     <t>Project Name</t>
   </si>
@@ -394,10 +396,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -535,6 +533,222 @@
   </si>
   <si>
     <t>SYSDATE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>EFERENCES member(mno)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smith</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>JENNIE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>아바타 정보 테이블</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>아바타번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일이름</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장경로</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일길이</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANO</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILENAME</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIR</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 CHAR</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 CHAR</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK(isshow IN ('Y', 'N'))</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>HECK(gen IN ('F', 'M'))</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBoard</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>글내용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>방명록 정보 테이블</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNO</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRITE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDATE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BODY</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 CHAR</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>YSDATE</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1553,6 +1767,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1680,27 +1915,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2011,7 +2225,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2023,72 +2237,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="51" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="56">
         <v>1521</v>
       </c>
     </row>
     <row r="9" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="70"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="57" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="70"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="57" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="51" t="s">
         <v>34</v>
       </c>
@@ -2294,11 +2508,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
     </row>
     <row r="4" spans="2:4" s="15" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -2445,8 +2659,8 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2467,78 +2681,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="85"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95">
         <v>45345</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91" t="s">
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="92" t="s">
+      <c r="K4" s="98"/>
+      <c r="L4" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="93"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="44" t="s">
@@ -2591,7 +2805,7 @@
       <c r="E7" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="109">
+      <c r="F7" s="66">
         <v>4</v>
       </c>
       <c r="G7" s="29" t="s">
@@ -2657,7 +2871,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -2713,8 +2927,8 @@
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="111" t="s">
-        <v>99</v>
+      <c r="M11" s="68" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -2744,7 +2958,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="17"/>
       <c r="M12" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -2786,7 +3000,7 @@
       <c r="E14" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="108">
+      <c r="F14" s="65">
         <v>1</v>
       </c>
       <c r="G14" s="17"/>
@@ -2800,7 +3014,7 @@
       </c>
       <c r="L14" s="31"/>
       <c r="M14" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -2821,14 +3035,16 @@
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="36" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I15" s="38"/>
       <c r="J15" s="36" t="s">
         <v>91</v>
       </c>
       <c r="K15" s="38"/>
-      <c r="L15" s="36"/>
+      <c r="L15" s="36">
+        <v>10</v>
+      </c>
       <c r="M15" s="41"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
@@ -2844,14 +3060,14 @@
       <c r="E16" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="64">
         <v>1</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="36" t="s">
         <v>92</v>
@@ -2860,7 +3076,7 @@
         <v>87</v>
       </c>
       <c r="M16" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
@@ -2893,7 +3109,7 @@
       <c r="J18" s="31"/>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
-      <c r="M18" s="110" t="s">
+      <c r="M18" s="67" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3027,36 +3243,40 @@
       <c r="M26" s="26"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="101"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="108"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="106"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3087,8 +3307,8 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3109,78 +3329,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83" t="s">
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95">
+        <v>45345</v>
+      </c>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="98"/>
+      <c r="L4" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="85"/>
-    </row>
-    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88">
-        <v>45345</v>
-      </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" s="93"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="44" t="s">
@@ -3225,15 +3445,15 @@
         <v>1</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="109">
+        <v>117</v>
+      </c>
+      <c r="F7" s="66">
         <v>6</v>
       </c>
       <c r="G7" s="29" t="s">
@@ -3251,16 +3471,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="112" t="s">
-        <v>120</v>
+      <c r="F8" s="69" t="s">
+        <v>119</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -3277,15 +3497,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="112">
+      <c r="F9" s="69">
         <v>4000</v>
       </c>
       <c r="G9" s="17"/>
@@ -3303,15 +3523,15 @@
         <v>4</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="112">
+      <c r="F10" s="69">
         <v>4</v>
       </c>
       <c r="G10" s="17"/>
@@ -3325,7 +3545,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="27"/>
     </row>
@@ -3334,15 +3554,15 @@
         <v>5</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="112"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="31"/>
@@ -3351,7 +3571,7 @@
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M11" s="21"/>
     </row>
@@ -3360,15 +3580,15 @@
         <v>6</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="112">
+        <v>118</v>
+      </c>
+      <c r="F12" s="69">
         <v>5</v>
       </c>
       <c r="G12" s="17"/>
@@ -3388,15 +3608,15 @@
         <v>7</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="69">
         <v>1</v>
       </c>
       <c r="G13" s="17"/>
@@ -3409,10 +3629,10 @@
         <v>93</v>
       </c>
       <c r="L13" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" s="70" t="s">
         <v>121</v>
-      </c>
-      <c r="M13" s="113" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -3625,36 +3845,40 @@
       <c r="M26" s="26"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="101"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="108"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="106"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3676,4 +3900,1158 @@
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B1:P28"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95">
+        <v>45348</v>
+      </c>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="98"/>
+      <c r="L4" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="100"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="47">
+        <v>1</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="66">
+        <v>2</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="48">
+        <v>2</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="48">
+        <v>3</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="42"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="48">
+        <v>4</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="42"/>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="48">
+        <v>5</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="69">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="48">
+        <v>6</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="69">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="48">
+        <v>7</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="70"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="48">
+        <v>8</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="48">
+        <v>9</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="63"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="48">
+        <v>10</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="48">
+        <v>11</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="63"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="48">
+        <v>12</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="42"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="48">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="48">
+        <v>14</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="48">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="21"/>
+      <c r="P21" s="18"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="48">
+        <v>16</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="48">
+        <v>17</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="48">
+        <v>18</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="43"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="48">
+        <v>19</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="49">
+        <v>20</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="26"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="108"/>
+    </row>
+    <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="113"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B1:P28"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95">
+        <v>45348</v>
+      </c>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="98"/>
+      <c r="L4" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="100"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="47">
+        <v>1</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="66">
+        <v>4</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="48">
+        <v>2</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="69">
+        <v>4</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="48">
+        <v>3</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="69"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="M9" s="42"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="48">
+        <v>4</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="42"/>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="48">
+        <v>5</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="48">
+        <v>6</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="42"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="48">
+        <v>7</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="70"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="48">
+        <v>8</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="48">
+        <v>9</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="63"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="48">
+        <v>10</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="48">
+        <v>11</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="63"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="48">
+        <v>12</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="42"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="48">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="48">
+        <v>14</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="48">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="21"/>
+      <c r="P21" s="18"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="48">
+        <v>16</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="48">
+        <v>17</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="48">
+        <v>18</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="43"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="48">
+        <v>19</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="49">
+        <v>20</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="26"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="108"/>
+    </row>
+    <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="113"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/게시판테이블명세서.xlsx
+++ b/src/게시판테이블명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="10275" tabRatio="829" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="10275" tabRatio="829" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스 명세서" sheetId="1" r:id="rId1"/>
@@ -2659,7 +2659,7 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -3042,9 +3042,7 @@
         <v>91</v>
       </c>
       <c r="K15" s="38"/>
-      <c r="L15" s="36">
-        <v>10</v>
-      </c>
+      <c r="L15" s="36"/>
       <c r="M15" s="41"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
@@ -4497,8 +4495,8 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/src/게시판테이블명세서.xlsx
+++ b/src/게시판테이블명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="10275" tabRatio="829" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="10275" tabRatio="829" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스 명세서" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="게시판 테이블  명세서" sheetId="5" r:id="rId4"/>
     <sheet name="아바타 테이블  명세서" sheetId="8" r:id="rId5"/>
     <sheet name="방명록 테이블  명세서" sheetId="9" r:id="rId6"/>
+    <sheet name="댓글게시판 테이블  명세서" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="187">
   <si>
     <t>Project Name</t>
   </si>
@@ -765,6 +766,78 @@
       </rPr>
       <t>EFERENCES member(mno)</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글게사판 테이블</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReBoard</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>글내용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위글번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개여부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebno</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>write</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>upno</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>isshow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK(isshow IN('Y', 'N'))</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENCES member(mno)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1824,6 +1897,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1876,45 +1988,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2681,78 +2754,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95">
+      <c r="C4" s="107"/>
+      <c r="D4" s="108">
         <v>45345</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="99" t="s">
+      <c r="K4" s="111"/>
+      <c r="L4" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="100"/>
+      <c r="M4" s="113"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="103"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="85"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="44" t="s">
@@ -3241,48 +3314,43 @@
       <c r="M26" s="26"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="106" t="s">
+      <c r="C27" s="87"/>
+      <c r="D27" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="108"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111" t="s">
+      <c r="C28" s="92"/>
+      <c r="D28" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="113"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -3291,6 +3359,11 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -3327,78 +3400,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95">
+      <c r="C4" s="107"/>
+      <c r="D4" s="108">
         <v>45345</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="99" t="s">
+      <c r="K4" s="111"/>
+      <c r="L4" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="100"/>
+      <c r="M4" s="113"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="103"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="85"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="44" t="s">
@@ -3843,43 +3916,48 @@
       <c r="M26" s="26"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="106" t="s">
+      <c r="C27" s="87"/>
+      <c r="D27" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="108"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111" t="s">
+      <c r="C28" s="92"/>
+      <c r="D28" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="113"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -3888,11 +3966,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -3929,78 +4002,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95">
+      <c r="C4" s="107"/>
+      <c r="D4" s="108">
         <v>45348</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="99" t="s">
+      <c r="K4" s="111"/>
+      <c r="L4" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="100"/>
+      <c r="M4" s="113"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="103"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="85"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="44" t="s">
@@ -4431,48 +4504,43 @@
       <c r="M26" s="26"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="106" t="s">
+      <c r="C27" s="87"/>
+      <c r="D27" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="108"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111" t="s">
+      <c r="C28" s="92"/>
+      <c r="D28" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="113"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -4481,6 +4549,11 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -4495,7 +4568,7 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -4517,78 +4590,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95">
+      <c r="C4" s="107"/>
+      <c r="D4" s="108">
         <v>45348</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="99" t="s">
+      <c r="K4" s="111"/>
+      <c r="L4" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="100"/>
+      <c r="M4" s="113"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="103"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="85"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="44" t="s">
@@ -4997,40 +5070,628 @@
       <c r="M26" s="26"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="106" t="s">
+      <c r="C27" s="87"/>
+      <c r="D27" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="108"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111" t="s">
+      <c r="C28" s="92"/>
+      <c r="D28" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="113"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108">
+        <v>45350</v>
+      </c>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="111"/>
+      <c r="L4" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="113"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="85"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="47">
+        <v>1</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="66">
+        <v>6</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="48">
+        <v>2</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="69">
+        <v>4000</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="48">
+        <v>3</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="69">
+        <v>4</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="48">
+        <v>4</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="42"/>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="48">
+        <v>5</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="69">
+        <v>6</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="48">
+        <v>6</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="69">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="48">
+        <v>7</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="70"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="48">
+        <v>8</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="48">
+        <v>9</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="63"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="48">
+        <v>10</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="48">
+        <v>11</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="63"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="48">
+        <v>12</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="42"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="48">
+        <v>13</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="48">
+        <v>14</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="48">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="21"/>
+      <c r="P21" s="18"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="48">
+        <v>16</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="48">
+        <v>17</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="48">
+        <v>18</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="43"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="48">
+        <v>19</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="49">
+        <v>20</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="26"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
+    </row>
+    <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/src/게시판테이블명세서.xlsx
+++ b/src/게시판테이블명세서.xlsx
@@ -809,10 +809,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>write</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>wdate</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -838,6 +834,10 @@
   </si>
   <si>
     <t>REFERENCES member(mno)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5135,7 +5135,7 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5278,7 +5278,7 @@
         <v>177</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="66">
         <v>6</v>
@@ -5304,7 +5304,7 @@
         <v>178</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="69">
         <v>4000</v>
@@ -5327,7 +5327,7 @@
         <v>173</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>74</v>
@@ -5346,7 +5346,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="31"/>
       <c r="M9" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -5357,7 +5357,7 @@
         <v>174</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>78</v>
@@ -5384,7 +5384,7 @@
         <v>175</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>74</v>
@@ -5408,7 +5408,7 @@
         <v>176</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>79</v>
@@ -5429,7 +5429,7 @@
         <v>87</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
